--- a/FCNN结果.xlsx
+++ b/FCNN结果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="8010"/>
+    <workbookView windowWidth="11805" windowHeight="6165"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,10 +16,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -31,30 +31,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -62,6 +39,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -75,15 +60,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -97,9 +81,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -128,6 +112,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -146,7 +138,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -154,12 +146,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -169,6 +162,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -183,7 +183,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -195,7 +273,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -207,37 +309,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -249,19 +333,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -273,25 +345,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -303,67 +363,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -377,32 +377,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -437,6 +416,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -466,11 +460,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -482,10 +482,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -494,133 +494,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -947,15 +947,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K73"/>
+  <dimension ref="A1:M73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="I66" sqref="I66"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:13">
       <c r="A1">
         <v>256</v>
       </c>
@@ -986,8 +986,14 @@
       <c r="K1">
         <v>400</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1">
+        <v>600</v>
+      </c>
+      <c r="M1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2">
         <v>64</v>
       </c>
@@ -1014,6 +1020,12 @@
       </c>
       <c r="K2">
         <v>50</v>
+      </c>
+      <c r="L2">
+        <v>120</v>
+      </c>
+      <c r="M2">
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1044,11 +1056,44 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>0.3</v>
       </c>
       <c r="B5">
+        <v>0.5</v>
+      </c>
+      <c r="C5">
+        <v>0.5</v>
+      </c>
+      <c r="D5">
+        <v>0.5</v>
+      </c>
+      <c r="E5">
+        <v>0.5</v>
+      </c>
+      <c r="F5">
+        <v>0.5</v>
+      </c>
+      <c r="G5">
+        <v>0.5</v>
+      </c>
+      <c r="H5">
+        <v>0.5</v>
+      </c>
+      <c r="I5">
+        <v>0.5</v>
+      </c>
+      <c r="J5">
+        <v>0.5</v>
+      </c>
+      <c r="K5">
+        <v>0.5</v>
+      </c>
+      <c r="L5">
+        <v>0.5</v>
+      </c>
+      <c r="M5">
         <v>0.5</v>
       </c>
     </row>
@@ -1071,7 +1116,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:13">
       <c r="A10">
         <v>5623</v>
       </c>
@@ -1105,8 +1150,14 @@
       <c r="K10">
         <v>6301</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="L10">
+        <v>5985</v>
+      </c>
+      <c r="M10">
+        <v>5985</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11">
         <v>5646</v>
       </c>
@@ -1140,8 +1191,14 @@
       <c r="K11">
         <v>5743</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="L11">
+        <v>5590</v>
+      </c>
+      <c r="M11">
+        <v>5590</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12">
         <v>5837</v>
       </c>
@@ -1175,8 +1232,14 @@
       <c r="K12">
         <v>5703</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="L12">
+        <v>5814</v>
+      </c>
+      <c r="M12">
+        <v>5814</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13">
         <v>5513</v>
       </c>
@@ -1210,8 +1273,14 @@
       <c r="K13">
         <v>5983</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="L13">
+        <v>5944</v>
+      </c>
+      <c r="M13">
+        <v>5944</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14">
         <v>6116</v>
       </c>
@@ -1245,8 +1314,14 @@
       <c r="K14">
         <v>6178</v>
       </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="L14">
+        <v>5217</v>
+      </c>
+      <c r="M14">
+        <v>5217</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15">
         <v>5371</v>
       </c>
@@ -1280,8 +1355,14 @@
       <c r="K15">
         <v>5627</v>
       </c>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="L15">
+        <v>5184</v>
+      </c>
+      <c r="M15">
+        <v>5184</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16">
         <v>5766</v>
       </c>
@@ -1315,8 +1396,14 @@
       <c r="K16">
         <v>5992</v>
       </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="L16">
+        <v>5895</v>
+      </c>
+      <c r="M16">
+        <v>5895</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17">
         <v>6045</v>
       </c>
@@ -1350,8 +1437,14 @@
       <c r="K17">
         <v>5741</v>
       </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="L17">
+        <v>6246</v>
+      </c>
+      <c r="M17">
+        <v>6246</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18">
         <v>5851</v>
       </c>
@@ -1385,8 +1478,14 @@
       <c r="K18">
         <v>5400</v>
       </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="L18">
+        <v>5235</v>
+      </c>
+      <c r="M18">
+        <v>5235</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19">
         <v>5622</v>
       </c>
@@ -1420,8 +1519,14 @@
       <c r="K19">
         <v>6126</v>
       </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="L19">
+        <v>6026</v>
+      </c>
+      <c r="M19">
+        <v>6026</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20">
         <v>5604</v>
       </c>
@@ -1455,8 +1560,14 @@
       <c r="K20">
         <v>5562</v>
       </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="L20">
+        <v>5019</v>
+      </c>
+      <c r="M20">
+        <v>5019</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21">
         <v>6399</v>
       </c>
@@ -1490,8 +1601,14 @@
       <c r="K21">
         <v>6275</v>
       </c>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="L21">
+        <v>5999</v>
+      </c>
+      <c r="M21">
+        <v>5999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22">
         <v>6090</v>
       </c>
@@ -1525,8 +1642,14 @@
       <c r="K22">
         <v>5583</v>
       </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="L22">
+        <v>6190</v>
+      </c>
+      <c r="M22">
+        <v>6190</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23">
         <v>5890</v>
       </c>
@@ -1560,8 +1683,14 @@
       <c r="K23">
         <v>5797</v>
       </c>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="L23">
+        <v>5041</v>
+      </c>
+      <c r="M23">
+        <v>5041</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24">
         <v>5838</v>
       </c>
@@ -1595,8 +1724,14 @@
       <c r="K24">
         <v>5726</v>
       </c>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="L24">
+        <v>5653</v>
+      </c>
+      <c r="M24">
+        <v>5653</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25">
         <v>5616</v>
       </c>
@@ -1630,8 +1765,14 @@
       <c r="K25">
         <v>5412</v>
       </c>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="L25">
+        <v>6230</v>
+      </c>
+      <c r="M25">
+        <v>6230</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26">
         <v>5238</v>
       </c>
@@ -1665,8 +1806,14 @@
       <c r="K26">
         <v>5480</v>
       </c>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="L26">
+        <v>5159</v>
+      </c>
+      <c r="M26">
+        <v>5159</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27">
         <v>5389</v>
       </c>
@@ -1700,8 +1847,14 @@
       <c r="K27">
         <v>5395</v>
       </c>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="L27">
+        <v>5996</v>
+      </c>
+      <c r="M27">
+        <v>5996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28">
         <v>5976</v>
       </c>
@@ -1735,8 +1888,14 @@
       <c r="K28">
         <v>6189</v>
       </c>
-    </row>
-    <row r="29" spans="1:11">
+      <c r="L28">
+        <v>6122</v>
+      </c>
+      <c r="M28">
+        <v>6122</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29">
         <v>5618</v>
       </c>
@@ -1770,8 +1929,14 @@
       <c r="K29">
         <v>5829</v>
       </c>
-    </row>
-    <row r="30" spans="1:11">
+      <c r="L29">
+        <v>6069</v>
+      </c>
+      <c r="M29">
+        <v>6069</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30">
         <v>6161</v>
       </c>
@@ -1805,8 +1970,14 @@
       <c r="K30">
         <v>6002</v>
       </c>
-    </row>
-    <row r="31" spans="1:11">
+      <c r="L30">
+        <v>5222</v>
+      </c>
+      <c r="M30">
+        <v>5222</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31">
         <v>6499</v>
       </c>
@@ -1840,8 +2011,14 @@
       <c r="K31">
         <v>5956</v>
       </c>
-    </row>
-    <row r="32" spans="1:11">
+      <c r="L31">
+        <v>5884</v>
+      </c>
+      <c r="M31">
+        <v>5884</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32">
         <v>5645</v>
       </c>
@@ -1875,8 +2052,14 @@
       <c r="K32">
         <v>5780</v>
       </c>
-    </row>
-    <row r="33" spans="1:11">
+      <c r="L32">
+        <v>6005</v>
+      </c>
+      <c r="M32">
+        <v>6005</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33">
         <v>6332</v>
       </c>
@@ -1910,8 +2093,14 @@
       <c r="K33">
         <v>5575</v>
       </c>
-    </row>
-    <row r="34" spans="1:11">
+      <c r="L33">
+        <v>5406</v>
+      </c>
+      <c r="M33">
+        <v>5406</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34">
         <v>5887</v>
       </c>
@@ -1945,8 +2134,14 @@
       <c r="K34">
         <v>5759</v>
       </c>
-    </row>
-    <row r="35" spans="1:11">
+      <c r="L34">
+        <v>6155</v>
+      </c>
+      <c r="M34">
+        <v>6155</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35">
         <v>5675</v>
       </c>
@@ -1980,8 +2175,14 @@
       <c r="K35">
         <v>6546</v>
       </c>
-    </row>
-    <row r="36" spans="1:11">
+      <c r="L35">
+        <v>5470</v>
+      </c>
+      <c r="M35">
+        <v>5470</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36">
         <v>6042</v>
       </c>
@@ -2015,8 +2216,14 @@
       <c r="K36">
         <v>5655</v>
       </c>
-    </row>
-    <row r="37" spans="1:11">
+      <c r="L36">
+        <v>6130</v>
+      </c>
+      <c r="M36">
+        <v>6130</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37">
         <v>6158</v>
       </c>
@@ -2050,8 +2257,14 @@
       <c r="K37">
         <v>5505</v>
       </c>
-    </row>
-    <row r="38" spans="1:11">
+      <c r="L37">
+        <v>5494</v>
+      </c>
+      <c r="M37">
+        <v>5494</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38">
         <v>5701</v>
       </c>
@@ -2085,8 +2298,14 @@
       <c r="K38">
         <v>5680</v>
       </c>
-    </row>
-    <row r="39" spans="1:11">
+      <c r="L38">
+        <v>5629</v>
+      </c>
+      <c r="M38">
+        <v>5629</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39">
         <v>5541</v>
       </c>
@@ -2120,8 +2339,14 @@
       <c r="K39">
         <v>6327</v>
       </c>
-    </row>
-    <row r="40" spans="1:11">
+      <c r="L39">
+        <v>6253</v>
+      </c>
+      <c r="M39">
+        <v>6253</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40">
         <v>6217</v>
       </c>
@@ -2155,8 +2380,14 @@
       <c r="K40">
         <v>5344</v>
       </c>
-    </row>
-    <row r="41" spans="1:11">
+      <c r="L40">
+        <v>5202</v>
+      </c>
+      <c r="M40">
+        <v>5202</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41">
         <v>5391</v>
       </c>
@@ -2190,8 +2421,14 @@
       <c r="K41">
         <v>6086</v>
       </c>
-    </row>
-    <row r="42" spans="1:11">
+      <c r="L41">
+        <v>5582</v>
+      </c>
+      <c r="M41">
+        <v>5582</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42">
         <v>5450</v>
       </c>
@@ -2225,8 +2462,14 @@
       <c r="K42">
         <v>5546</v>
       </c>
-    </row>
-    <row r="43" spans="1:11">
+      <c r="L42">
+        <v>5580</v>
+      </c>
+      <c r="M42">
+        <v>5580</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43">
         <v>5999</v>
       </c>
@@ -2260,8 +2503,14 @@
       <c r="K43">
         <v>5900</v>
       </c>
-    </row>
-    <row r="44" spans="1:11">
+      <c r="L43">
+        <v>5959</v>
+      </c>
+      <c r="M43">
+        <v>5959</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44">
         <v>5567</v>
       </c>
@@ -2295,8 +2544,14 @@
       <c r="K44">
         <v>6019</v>
       </c>
-    </row>
-    <row r="45" spans="1:11">
+      <c r="L44">
+        <v>5891</v>
+      </c>
+      <c r="M44">
+        <v>5891</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45">
         <v>5327</v>
       </c>
@@ -2330,8 +2585,14 @@
       <c r="K45">
         <v>5513</v>
       </c>
-    </row>
-    <row r="46" spans="1:11">
+      <c r="L45">
+        <v>5508</v>
+      </c>
+      <c r="M45">
+        <v>5508</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46">
         <v>5610</v>
       </c>
@@ -2365,8 +2626,14 @@
       <c r="K46">
         <v>6220</v>
       </c>
-    </row>
-    <row r="47" spans="1:11">
+      <c r="L46">
+        <v>6120</v>
+      </c>
+      <c r="M46">
+        <v>6120</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47">
         <v>5881</v>
       </c>
@@ -2400,8 +2667,14 @@
       <c r="K47">
         <v>5748</v>
       </c>
-    </row>
-    <row r="48" spans="1:11">
+      <c r="L47">
+        <v>5372</v>
+      </c>
+      <c r="M47">
+        <v>5372</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48">
         <v>5973</v>
       </c>
@@ -2435,8 +2708,14 @@
       <c r="K48">
         <v>6044</v>
       </c>
-    </row>
-    <row r="49" spans="1:11">
+      <c r="L48">
+        <v>5284</v>
+      </c>
+      <c r="M48">
+        <v>5284</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49">
         <v>5973</v>
       </c>
@@ -2470,8 +2749,14 @@
       <c r="K49">
         <v>5278</v>
       </c>
-    </row>
-    <row r="50" spans="1:11">
+      <c r="L49">
+        <v>5504</v>
+      </c>
+      <c r="M49">
+        <v>5504</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50">
         <v>5823</v>
       </c>
@@ -2505,8 +2790,14 @@
       <c r="K50">
         <v>6309</v>
       </c>
-    </row>
-    <row r="51" spans="1:11">
+      <c r="L50">
+        <v>5577</v>
+      </c>
+      <c r="M50">
+        <v>5577</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51">
         <v>5985</v>
       </c>
@@ -2540,8 +2831,14 @@
       <c r="K51">
         <v>5681</v>
       </c>
-    </row>
-    <row r="52" spans="1:11">
+      <c r="L51">
+        <v>5493</v>
+      </c>
+      <c r="M51">
+        <v>5493</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52">
         <v>6026</v>
       </c>
@@ -2575,8 +2872,14 @@
       <c r="K52">
         <v>6673</v>
       </c>
-    </row>
-    <row r="53" spans="1:11">
+      <c r="L52">
+        <v>6097</v>
+      </c>
+      <c r="M52">
+        <v>6097</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53">
         <v>5241</v>
       </c>
@@ -2610,8 +2913,14 @@
       <c r="K53">
         <v>5749</v>
       </c>
-    </row>
-    <row r="54" spans="1:11">
+      <c r="L53">
+        <v>5362</v>
+      </c>
+      <c r="M53">
+        <v>5362</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54">
         <v>5654</v>
       </c>
@@ -2645,8 +2954,14 @@
       <c r="K54">
         <v>5871</v>
       </c>
-    </row>
-    <row r="55" spans="1:11">
+      <c r="L54">
+        <v>6008</v>
+      </c>
+      <c r="M54">
+        <v>6008</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55">
         <v>5610</v>
       </c>
@@ -2680,8 +2995,14 @@
       <c r="K55">
         <v>5330</v>
       </c>
-    </row>
-    <row r="56" spans="1:11">
+      <c r="L55">
+        <v>5709</v>
+      </c>
+      <c r="M55">
+        <v>5709</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56">
         <v>6310</v>
       </c>
@@ -2715,8 +3036,14 @@
       <c r="K56">
         <v>5778</v>
       </c>
-    </row>
-    <row r="57" spans="1:11">
+      <c r="L56">
+        <v>6091</v>
+      </c>
+      <c r="M56">
+        <v>6091</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57">
         <v>5706</v>
       </c>
@@ -2750,8 +3077,14 @@
       <c r="K57">
         <v>6295</v>
       </c>
-    </row>
-    <row r="58" spans="1:11">
+      <c r="L57">
+        <v>5738</v>
+      </c>
+      <c r="M57">
+        <v>5738</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58">
         <v>5580</v>
       </c>
@@ -2785,8 +3118,14 @@
       <c r="K58">
         <v>5925</v>
       </c>
-    </row>
-    <row r="59" spans="1:11">
+      <c r="L58">
+        <v>6123</v>
+      </c>
+      <c r="M58">
+        <v>6123</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59">
         <v>5905</v>
       </c>
@@ -2819,6 +3158,12 @@
       </c>
       <c r="K59">
         <v>5859</v>
+      </c>
+      <c r="L59">
+        <v>5661</v>
+      </c>
+      <c r="M59">
+        <v>5661</v>
       </c>
     </row>
     <row r="60" spans="3:3">
@@ -2826,7 +3171,7 @@
         <v>5473</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:13">
       <c r="A61">
         <f>MAX(A10:A59)</f>
         <v>6499</v>
@@ -2839,39 +3184,47 @@
         <v>5493</v>
       </c>
       <c r="D61">
-        <f>MAX(D10:D59)</f>
+        <f t="shared" ref="D61:K61" si="0">MAX(D10:D59)</f>
         <v>6572</v>
       </c>
       <c r="E61">
-        <f>MAX(E10:E59)</f>
+        <f t="shared" si="0"/>
         <v>6610</v>
       </c>
       <c r="F61">
-        <f>MAX(F10:F59)</f>
+        <f t="shared" si="0"/>
         <v>7179</v>
       </c>
       <c r="G61">
-        <f>MAX(G10:G59)</f>
+        <f t="shared" si="0"/>
         <v>6634</v>
       </c>
       <c r="H61">
-        <f>MAX(H10:H59)</f>
+        <f t="shared" si="0"/>
         <v>6614</v>
       </c>
       <c r="I61">
-        <f>MAX(I10:I59)</f>
+        <f t="shared" si="0"/>
         <v>6249</v>
       </c>
       <c r="J61">
-        <f>MAX(J10:J59)</f>
+        <f t="shared" si="0"/>
         <v>6463</v>
       </c>
       <c r="K61">
-        <f>MAX(K10:K59)</f>
+        <f t="shared" si="0"/>
         <v>6673</v>
       </c>
-    </row>
-    <row r="62" spans="1:11">
+      <c r="L61">
+        <f>MAX(L10:L59)</f>
+        <v>6253</v>
+      </c>
+      <c r="M61">
+        <f>MAX(M10:M59)</f>
+        <v>6253</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62">
         <f>MIN(A10:A59)</f>
         <v>5238</v>
@@ -2884,39 +3237,47 @@
         <v>5284</v>
       </c>
       <c r="D62">
-        <f>MIN(D10:D59)</f>
+        <f t="shared" ref="D62:K62" si="1">MIN(D10:D59)</f>
         <v>5017</v>
       </c>
       <c r="E62">
-        <f>MIN(E10:E59)</f>
+        <f t="shared" si="1"/>
         <v>5150</v>
       </c>
       <c r="F62">
-        <f>MIN(F10:F59)</f>
+        <f t="shared" si="1"/>
         <v>5906</v>
       </c>
       <c r="G62">
-        <f>MIN(G10:G59)</f>
+        <f t="shared" si="1"/>
         <v>5060</v>
       </c>
       <c r="H62">
-        <f>MIN(H10:H59)</f>
+        <f t="shared" si="1"/>
         <v>5306</v>
       </c>
       <c r="I62">
-        <f>MIN(I10:I59)</f>
+        <f t="shared" si="1"/>
         <v>5065</v>
       </c>
       <c r="J62">
-        <f>MIN(J10:J59)</f>
+        <f t="shared" si="1"/>
         <v>5281</v>
       </c>
       <c r="K62">
-        <f>MIN(K10:K59)</f>
+        <f t="shared" si="1"/>
         <v>5278</v>
       </c>
-    </row>
-    <row r="63" spans="1:11">
+      <c r="L62">
+        <f>MIN(L10:L59)</f>
+        <v>5019</v>
+      </c>
+      <c r="M62">
+        <f>MIN(M10:M59)</f>
+        <v>5019</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63">
         <f>AVERAGE(A10:A59)</f>
         <v>5798.34</v>
@@ -2929,36 +3290,44 @@
         <v>5693</v>
       </c>
       <c r="D63">
-        <f>AVERAGE(D10:D59)</f>
+        <f t="shared" ref="D63:K63" si="2">AVERAGE(D10:D59)</f>
         <v>5750.38</v>
       </c>
       <c r="E63">
-        <f>AVERAGE(E10:E59)</f>
+        <f t="shared" si="2"/>
         <v>5731.9</v>
       </c>
       <c r="F63">
-        <f>AVERAGE(F10:F59)</f>
+        <f t="shared" si="2"/>
         <v>6811.16</v>
       </c>
       <c r="G63">
-        <f>AVERAGE(G10:G59)</f>
+        <f t="shared" si="2"/>
         <v>5784.14</v>
       </c>
       <c r="H63">
-        <f>AVERAGE(H10:H59)</f>
+        <f t="shared" si="2"/>
         <v>5836.88</v>
       </c>
       <c r="I63">
-        <f>AVERAGE(I10:I59)</f>
+        <f t="shared" si="2"/>
         <v>5691.64</v>
       </c>
       <c r="J63">
-        <f>AVERAGE(J10:J59)</f>
+        <f t="shared" si="2"/>
         <v>5824.68</v>
       </c>
       <c r="K63">
-        <f>AVERAGE(K10:K59)</f>
+        <f t="shared" si="2"/>
         <v>5839.9</v>
+      </c>
+      <c r="L63">
+        <f>AVERAGE(L10:L59)</f>
+        <v>5722.46</v>
+      </c>
+      <c r="M63">
+        <f>AVERAGE(M10:M59)</f>
+        <v>5722.46</v>
       </c>
     </row>
     <row r="64" spans="3:3">
